--- a/hiqu/Performance Evaluation/September 2024/QA/Bilal Raja.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/QA/Bilal Raja.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\ScoreCard.Arshad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA655031-7B8C-4FB8-B460-BCD2F3808109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D2F65E-92DD-4D5A-952A-A9608E7B7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
+    <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>Employee Name</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Number of Bugs</t>
   </si>
   <si>
-    <t>Difference</t>
-  </si>
-  <si>
     <t>Overall Performance</t>
   </si>
   <si>
@@ -258,52 +255,67 @@
     <t>June</t>
   </si>
   <si>
+    <t>Period: September 2024</t>
+  </si>
+  <si>
+    <t>Project Overhead</t>
+  </si>
+  <si>
+    <t>Mgmt</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Design</t>
+  </si>
+  <si>
+    <t>Testing and Verification</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Bilal Raja</t>
+  </si>
+  <si>
+    <t>QA Manager</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>APWORKS 2024.2 - PHASE 3</t>
+  </si>
+  <si>
+    <t>Ability to automatically attach additional documents to Invoice</t>
+  </si>
+  <si>
     <t>APWORKS PHASE2</t>
   </si>
   <si>
-    <t>Period: September 2024</t>
-  </si>
-  <si>
-    <t>Project Overhead</t>
-  </si>
-  <si>
-    <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
-    <t>Testing and Verification</t>
-  </si>
-  <si>
-    <t>Internal Meetings</t>
-  </si>
-  <si>
-    <t>Meetings</t>
-  </si>
-  <si>
-    <t>Bilal Raja</t>
-  </si>
-  <si>
-    <t>Admin &amp; Misc.</t>
-  </si>
-  <si>
-    <t>Nexelus 2024.2</t>
-  </si>
-  <si>
-    <t>Testing and Bug Fixing</t>
-  </si>
-  <si>
-    <t>QA Manager</t>
-  </si>
-  <si>
-    <t>003</t>
+    <t>Meetings, mails, communication, TFS, Interviews</t>
+  </si>
+  <si>
+    <t>Regular testing and QA new project/assignment/task</t>
+  </si>
+  <si>
+    <t>NEXELUS 2024.2</t>
+  </si>
+  <si>
+    <t>Analysis of the new project/assignment/task</t>
+  </si>
+  <si>
+    <t>QA Verification</t>
+  </si>
+  <si>
+    <t>Regular bug fixing activity</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -313,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +405,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ARIAL"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -577,7 +595,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -648,6 +666,15 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,9 +733,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="4" applyBorder="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1055,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
   <dimension ref="B2:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:M23"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,18 +1091,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="35"/>
+      <c r="B2" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="38"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
     </row>
@@ -1086,11 +1110,11 @@
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
@@ -1098,11 +1122,11 @@
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
@@ -1110,11 +1134,11 @@
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="C7" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
@@ -1122,11 +1146,11 @@
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="C8" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
@@ -1134,24 +1158,24 @@
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="C9" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="42">
+        <v>57</v>
+      </c>
+      <c r="C10" s="45">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.4684931506849315</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
+        <v>1.5205479452054795</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
@@ -1159,309 +1183,313 @@
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="B13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
       <c r="M15" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="32">
         <v>0.9</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="E16" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="32">
         <v>0.9</v>
       </c>
-      <c r="J16" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="J16" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="48"/>
+      <c r="L16" s="49"/>
       <c r="M16" s="33">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="32">
         <v>0.9</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
+      <c r="E17" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="32">
         <v>0.75</v>
       </c>
-      <c r="J17" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="45"/>
-      <c r="L17" s="46"/>
+      <c r="J17" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
       <c r="M17" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="32">
         <v>0.9</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
+      <c r="E18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="32">
         <v>0.85</v>
       </c>
-      <c r="J18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
+      <c r="J18" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="48"/>
+      <c r="L18" s="49"/>
       <c r="M18" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="32">
         <v>0.8</v>
       </c>
-      <c r="E19" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
+      <c r="E19" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="32">
         <v>0.8</v>
       </c>
-      <c r="J19" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
+      <c r="J19" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="32">
         <v>0.9</v>
       </c>
-      <c r="E20" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
+      <c r="E20" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="40"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="32">
         <v>0.75</v>
       </c>
-      <c r="J20" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
+      <c r="J20" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="48"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="32">
         <v>0.9</v>
       </c>
-      <c r="E21" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
+      <c r="E21" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="32">
         <v>0.85</v>
       </c>
-      <c r="J21" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="45"/>
-      <c r="L21" s="46"/>
+      <c r="J21" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="48"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C22" s="32">
         <v>0.9</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="E22" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="40"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="32">
         <v>0.75</v>
       </c>
-      <c r="J22" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="45"/>
-      <c r="L22" s="46"/>
+      <c r="J22" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="48"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="33">
         <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="32">
         <v>0.75</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="41"/>
       <c r="H23" s="32"/>
-      <c r="J23" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
+      <c r="J23" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
       <c r="M23" s="33">
         <v>0.7</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
+      <c r="B25" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="E27" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="F27" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="G27" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="I27" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="K27" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="L27" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="27" t="s">
+      <c r="M27" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="N27" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21</v>
+      </c>
       <c r="D28" s="1">
         <v>22</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2">
+        <v>19</v>
+      </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1474,13 +1502,17 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>19</v>
+      </c>
       <c r="D29" s="1">
         <v>22</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2">
+        <v>19</v>
+      </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -1493,13 +1525,17 @@
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
       <c r="D30" s="1">
         <v>0</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -1512,13 +1548,17 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
       <c r="D31" s="1">
-        <v>22</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6</v>
+      </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -1531,13 +1571,17 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
       <c r="D32" s="1">
         <v>0</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -1550,13 +1594,17 @@
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -1569,13 +1617,17 @@
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1588,13 +1640,17 @@
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
       <c r="D35" s="1">
         <v>0</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -1735,16 +1791,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
-  <dimension ref="B2:U16"/>
+  <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
@@ -1763,76 +1819,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
+      <c r="B3" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
+      <c r="B4" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1841,51 +1897,51 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55" t="s">
+      <c r="I6" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="52"/>
-      <c r="M6" s="53"/>
+      <c r="K6" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="55"/>
+      <c r="M6" s="56"/>
       <c r="O6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="13"/>
-      <c r="R6" s="51" t="s">
+      <c r="R6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="53"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="56"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>78</v>
-      </c>
       <c r="G7" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+        <v>59</v>
+      </c>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
       <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1896,16 +1952,16 @@
         <v>14</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="Q7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="T7" s="10" t="s">
         <v>11</v>
@@ -1915,11 +1971,10 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="35"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1936,48 +1991,40 @@
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30">
-        <v>9</v>
-      </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
-      </c>
-      <c r="U9" s="7">
-        <f>SUM(R9:T9)</f>
-        <v>0</v>
-      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="7">
+        <f>D9+E9+F9+G9+H9+I9+L9</f>
+        <v>7</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="35"/>
       <c r="E10" s="2">
-        <v>21</v>
+        <f>7+6</f>
+        <v>13</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1985,8 +2032,11 @@
       <c r="I10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
-      <c r="O10" s="7"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="7">
+        <f>D10+E10+F10+G10+H10+I10+L10</f>
+        <v>13</v>
+      </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1994,11 +2044,9 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2015,122 +2063,301 @@
       <c r="U11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="2">
-        <v>15</v>
-      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>4</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="7">
-        <f>SUM(R12:T12)</f>
-        <v>1</v>
-      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="O12" s="7">
+        <f>D12+E12+F12+G12+H12+I12+L12</f>
+        <v>8</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="35"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="15"/>
-      <c r="O13" s="7"/>
+      <c r="L13" s="2">
+        <v>16</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="O13" s="7">
+        <f>D13+E13+F13+G13+H13+I13+L13</f>
+        <v>16</v>
+      </c>
       <c r="Q13" s="7"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="7"/>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17">
-        <f>SUM(D8:D10)</f>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>6</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="O15" s="7">
+        <f>D15+E15+F15+G15+H15+I15+L15</f>
+        <v>6</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="O16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2">
+        <v>24</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="O17" s="7">
+        <f>D17+E17+F17+G17+H17+I17+L17</f>
+        <v>24</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="7"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="36"/>
+      <c r="C18" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2">
+        <v>6</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="O18" s="7">
+        <f>D18+E18+F18+G18+H18+I18+L18</f>
+        <v>6</v>
+      </c>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="7"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="34"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="15"/>
+      <c r="O21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="7"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17">
+        <f t="shared" ref="D23:I23" si="0">SUM(D8:D19)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="17">
-        <f t="shared" ref="E15:I15" si="0">SUM(E8:E10)</f>
-        <v>30</v>
-      </c>
-      <c r="F15" s="17">
+      <c r="E23" s="17">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H23" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I23" s="17">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17">
+        <f>SUM(K8:K22)</f>
         <v>0</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17">
-        <f>SUM(K8:K14)</f>
+      <c r="L23" s="17">
+        <f>SUM(L8:L22)</f>
+        <v>46</v>
+      </c>
+      <c r="M23" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="17">
-        <f>SUM(L8:L14)</f>
-        <v>4</v>
-      </c>
-      <c r="M15" s="18">
+      <c r="N23" s="17"/>
+      <c r="O23" s="17">
+        <f>SUM(O8:O21)</f>
+        <v>80</v>
+      </c>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17">
+        <f>SUM(R8:R22)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17">
-        <f>SUM(R8:R14)</f>
+      <c r="S23" s="17">
+        <f>SUM(S8:S22)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="17">
-        <f>SUM(S8:S14)</f>
+      <c r="T23" s="17">
+        <f>SUM(T8:T22)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="17">
-        <f>SUM(T8:T14)</f>
-        <v>1</v>
-      </c>
-      <c r="U15" s="17">
-        <f>SUM(U8:U14)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="U23" s="17">
+        <f>SUM(U8:U22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="B3:U3"/>
@@ -2142,14 +2369,9 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="H6:H7"/>
   </mergeCells>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="expression" priority="4">
-      <formula>R9/$U9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
+  <conditionalFormatting sqref="R20">
     <cfRule type="expression" priority="1">
-      <formula>R12/$U12</formula>
+      <formula>R20/$U20</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/hiqu/Performance Evaluation/September 2024/QA/Bilal Raja.xlsx
+++ b/hiqu/Performance Evaluation/September 2024/QA/Bilal Raja.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs\hiqu\Performance Evaluation\September 2024\QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D2F65E-92DD-4D5A-952A-A9608E7B7639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E272804-1CC3-43AE-9458-71EDFACD9714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-3840" windowWidth="29040" windowHeight="15720" xr2:uid="{C18F1D24-2B51-47D5-ADD3-847EF68750D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="2" r:id="rId1"/>
-    <sheet name="September 24" sheetId="1" r:id="rId2"/>
+    <sheet name="Quarterly Ealuations" sheetId="3" r:id="rId2"/>
+    <sheet name="September 24" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>Employee Name</t>
   </si>
@@ -316,6 +317,18 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Quarterly Evaluation (%)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
   </si>
 </sst>
 </file>
@@ -408,8 +421,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -595,7 +608,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -646,7 +659,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -675,16 +687,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -692,18 +704,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -732,6 +732,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1077,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9386B91B-8D62-4F20-9CB7-F711303AA283}">
-  <dimension ref="B2:N35"/>
+  <dimension ref="B2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,599 +1094,353 @@
     <col min="4" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:14" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="38"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="37" t="s">
+      <c r="C2" s="39"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="42">
         <f ca="1">(_xlfn.DAYS(TODAY(),C9)/365)</f>
-        <v>1.5205479452054795</v>
-      </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+        <v>1.5287671232876712</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="J16" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="48"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="33">
+    <row r="14" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19</v>
+      </c>
+      <c r="D18" s="1">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="J17" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="32">
-        <v>0.85</v>
-      </c>
-      <c r="J18" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18" s="48"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="J19" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="33">
-        <v>0.5</v>
-      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="J20" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="33">
-        <v>0.6</v>
-      </c>
+      <c r="B20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="32">
-        <v>0.85</v>
-      </c>
-      <c r="J21" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="48"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="33">
-        <v>0.6</v>
-      </c>
+      <c r="B21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="32">
-        <v>0.9</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="J22" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="33">
-        <v>0.6</v>
-      </c>
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="32">
-        <v>0.75</v>
-      </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="32"/>
-      <c r="J23" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="33">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="L27" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="M27" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="N27" s="27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="2">
-        <v>21</v>
-      </c>
-      <c r="D28" s="1">
-        <v>22</v>
-      </c>
-      <c r="E28" s="2">
-        <v>19</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2">
-        <v>19</v>
-      </c>
-      <c r="D29" s="1">
-        <v>22</v>
-      </c>
-      <c r="E29" s="2">
-        <v>19</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="2">
+      <c r="B23" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="2">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1">
-        <v>6</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
+  <mergeCells count="10">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="B13:M13"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
@@ -1690,9 +1448,433 @@
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B14:N14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C16:C23">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710F64B2-9BF0-43DE-8044-F64E07B2E95F}">
+  <dimension ref="B3:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C16" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.85</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="24"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="32">
+        <v>0</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="32">
+        <v>0.6</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="32">
+        <v>0.7</v>
+      </c>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D6:D13">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4559E7B6-E68B-4A85-8CAE-926C435E4802}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D25">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5AA3EF2C-9261-4BBE-9E32-206D09E38639}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:D37">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D837710-825B-4BB9-B9EA-D1BC6236970C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6:E13">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{285A3909-3BE1-4E0C-9826-18FCA010A4E4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:E25">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0200D0FA-94A7-4F67-B24C-D9637E679452}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30:E37">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{97C72F87-5F86-4A86-A24A-C3E5A54344DF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C13">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1701,12 +1883,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C887EAAA-5653-4036-8034-AF9C4CADFBF9}</x14:id>
+          <x14:id>{1ECFBB84-9BFD-41D0-BAB4-2B7B740963F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:H23">
+  <conditionalFormatting sqref="C18:C25">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1715,12 +1897,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7B9BB841-EEA7-4B2A-9AFC-1B329A65BDCF}</x14:id>
+          <x14:id>{63ADC67F-6065-4A81-BCD8-47D1F98DA5C0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M16:M23">
+  <conditionalFormatting sqref="C30:C37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1729,7 +1911,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4E2BB0F9-5878-474C-8296-AB66E8C83F39}</x14:id>
+          <x14:id>{90A5A5F7-DD4B-442E-A0F3-B5EEF836AAF5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1739,7 +1921,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C887EAAA-5653-4036-8034-AF9C4CADFBF9}">
+          <x14:cfRule type="dataBar" id="{4559E7B6-E68B-4A85-8CAE-926C435E4802}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1751,10 +1933,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C16:C23</xm:sqref>
+          <xm:sqref>D6:D13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7B9BB841-EEA7-4B2A-9AFC-1B329A65BDCF}">
+          <x14:cfRule type="dataBar" id="{5AA3EF2C-9261-4BBE-9E32-206D09E38639}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1766,10 +1948,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H16:H23</xm:sqref>
+          <xm:sqref>D18:D25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4E2BB0F9-5878-474C-8296-AB66E8C83F39}">
+          <x14:cfRule type="dataBar" id="{9D837710-825B-4BB9-B9EA-D1BC6236970C}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="num">
@@ -1781,7 +1963,97 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M16:M23</xm:sqref>
+          <xm:sqref>D30:D37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{285A3909-3BE1-4E0C-9826-18FCA010A4E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E6:E13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0200D0FA-94A7-4F67-B24C-D9637E679452}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E18:E25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{97C72F87-5F86-4A86-A24A-C3E5A54344DF}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E30:E37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1ECFBB84-9BFD-41D0-BAB4-2B7B740963F0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C6:C13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{63ADC67F-6065-4A81-BCD8-47D1F98DA5C0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C18:C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90A5A5F7-DD4B-442E-A0F3-B5EEF836AAF5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="5" tint="0.39997558519241921"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C30:C37</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1789,7 +2061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91243861-FD89-470C-9D9D-D3C0781A3547}">
   <dimension ref="B2:U24"/>
   <sheetViews>
@@ -1819,76 +2091,76 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
@@ -1897,51 +2169,51 @@
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
       <c r="O6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="13"/>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="56"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="48"/>
+      <c r="U6" s="49"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="K7" s="10" t="s">
         <v>15</v>
       </c>
@@ -1971,10 +2243,10 @@
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="35"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1991,11 +2263,11 @@
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="35"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="2">
         <v>7</v>
       </c>
@@ -2017,11 +2289,11 @@
       <c r="U9" s="7"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="35" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="35"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="2">
         <f>7+6</f>
         <v>13</v>
@@ -2044,7 +2316,7 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="34" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="2"/>
@@ -2063,11 +2335,11 @@
       <c r="U11" s="7"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="35" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="35"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="2">
         <v>8</v>
       </c>
@@ -2089,11 +2361,11 @@
       <c r="U12" s="7"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="35" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="35"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2115,7 +2387,7 @@
       <c r="U13" s="7"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>88</v>
       </c>
       <c r="E14" s="2"/>
@@ -2134,11 +2406,11 @@
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="35"/>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="35"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2160,11 +2432,11 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="36"/>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="35"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="2">
         <v>3</v>
       </c>
@@ -2183,11 +2455,11 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="36" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="35"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2209,11 +2481,11 @@
       <c r="U17" s="7"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
-      <c r="C18" s="35" t="s">
+      <c r="B18" s="35"/>
+      <c r="C18" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="35"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2235,7 +2507,7 @@
       <c r="U18" s="7"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="34"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -2255,11 +2527,11 @@
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="K20" s="2"/>
